--- a/panel.xlsx
+++ b/panel.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>89Y</t>
   </si>
   <si>
-    <t>CD45</t>
-  </si>
-  <si>
     <t>115ln</t>
   </si>
   <si>
@@ -177,13 +174,7 @@
     <t>166Er</t>
   </si>
   <si>
-    <t>CD183/CXCR3</t>
-  </si>
-  <si>
     <t>167Er</t>
-  </si>
-  <si>
-    <t>CD94</t>
   </si>
   <si>
     <t>168Er</t>
@@ -283,6 +274,26 @@
   <si>
     <t>cisplatin</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD183/CXCR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -331,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,15 +433,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -740,7 +768,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -753,374 +781,390 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>65</v>
+      <c r="C16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>51</v>
+      <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>79</v>
+      <c r="A40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B45">
-    <sortCondition sortBy="cellColor" ref="B2:B45" dxfId="1"/>
+  <sortState ref="A1:D45">
+    <sortCondition descending="1" sortBy="cellColor" ref="B1:B45" dxfId="1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
